--- a/FOMS/data/payment_list.xlsx
+++ b/FOMS/data/payment_list.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>category</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>ApplePay</t>
+  </si>
+  <si>
+    <t>AMAX</t>
   </si>
 </sst>
 </file>

--- a/FOMS/data/payment_list.xlsx
+++ b/FOMS/data/payment_list.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A0ECBC-B94E-42BF-8FD0-23C0668B4887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5553769B-D5CB-4048-906B-46CC8405595B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>category</t>
   </si>
@@ -43,19 +43,12 @@
   </si>
   <si>
     <t>PayNow</t>
-  </si>
-  <si>
-    <t>ApplePay</t>
-  </si>
-  <si>
-    <t>AMAX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,7 +66,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,12 +74,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,16 +373,16 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/FOMS/data/payment_list.xlsx
+++ b/FOMS/data/payment_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5553769B-D5CB-4048-906B-46CC8405595B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28D9318-0EF0-4468-8038-F51C4AE7B746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,10 +373,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">

--- a/FOMS/data/payment_list.xlsx
+++ b/FOMS/data/payment_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rache\Documents\GitHub\SC2002_OOP_FOMS\FOMS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28D9318-0EF0-4468-8038-F51C4AE7B746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028A7F53-131F-4AAD-B505-CBD43D05D4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,7 +373,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
